--- a/doc/Contrôle qualité_V5.xlsx
+++ b/doc/Contrôle qualité_V5.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$K$205</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$K$205</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Feuil1!$A$1:$K$205</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="484">
   <si>
     <t xml:space="preserve">N° de contrôle</t>
   </si>
@@ -2706,12 +2707,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2757,7 +2764,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2774,7 +2781,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2794,7 +2809,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2802,7 +2817,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2879,7 +2894,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -2913,23 +2928,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.9081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.6836734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,141 +2985,147 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +3211,7 @@
       <c r="F8" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -3222,7 +3243,7 @@
       <c r="F9" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -3286,7 +3307,7 @@
       <c r="F11" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -3617,19 +3638,19 @@
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I22" s="0" t="s">
@@ -4039,7 +4060,7 @@
       <c r="F35" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="7" t="s">
         <v>92</v>
       </c>
       <c r="I35" s="0" t="s">
@@ -5397,70 +5418,70 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="n">
+      <c r="A78" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="B78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K78" s="7" t="s">
+      <c r="K78" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="n">
+      <c r="A79" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="B79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" s="9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5518,7 +5539,7 @@
       <c r="F81" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H81" s="0" t="s">
@@ -5661,7 +5682,7 @@
       <c r="G85" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="7" t="s">
         <v>207</v>
       </c>
       <c r="I85" s="0" t="s">
@@ -5905,13 +5926,13 @@
       <c r="D93" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="8" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="0" t="s">
@@ -5934,7 +5955,7 @@
       <c r="F94" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="8" t="s">
         <v>235</v>
       </c>
       <c r="I94" s="0" t="s">
@@ -5963,7 +5984,7 @@
       <c r="F95" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="8" t="s">
         <v>238</v>
       </c>
       <c r="I95" s="0" t="s">
@@ -5992,7 +6013,7 @@
       <c r="F96" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="8" t="s">
         <v>240</v>
       </c>
       <c r="I96" s="0" t="s">
@@ -6021,7 +6042,7 @@
       <c r="F97" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="8" t="s">
         <v>241</v>
       </c>
       <c r="I97" s="0" t="s">
@@ -6050,7 +6071,7 @@
       <c r="F98" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="12" t="s">
         <v>243</v>
       </c>
       <c r="I98" s="0" t="s">
@@ -6076,7 +6097,7 @@
       <c r="G99" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="11" t="s">
         <v>249</v>
       </c>
       <c r="I99" s="0" t="s">
@@ -6158,30 +6179,30 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="n">
+    <row r="103" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="8" t="s">
+      <c r="C103" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -6398,7 +6419,7 @@
       <c r="F112" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="11" t="s">
         <v>280</v>
       </c>
       <c r="I112" s="0" t="s">
@@ -6421,7 +6442,7 @@
       <c r="F113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="11" t="s">
         <v>282</v>
       </c>
       <c r="I113" s="0" t="s">
@@ -6571,27 +6592,27 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="n">
+      <c r="A119" s="9" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="8" t="s">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7" t="s">
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -6603,7 +6624,7 @@
       <c r="F120" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="11" t="s">
         <v>301</v>
       </c>
       <c r="I120" s="0" t="s">
@@ -6687,7 +6708,7 @@
       <c r="F123" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="G123" s="8" t="s">
         <v>307</v>
       </c>
       <c r="I123" s="0" t="s">
@@ -6716,7 +6737,7 @@
       <c r="F124" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="G124" s="8" t="s">
         <v>309</v>
       </c>
       <c r="I124" s="0" t="s">
@@ -6742,7 +6763,7 @@
       <c r="F125" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="G125" s="8" t="s">
         <v>310</v>
       </c>
       <c r="I125" s="0" t="s">
@@ -7132,10 +7153,10 @@
       <c r="F140" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="G140" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H140" s="12" t="s">
+      <c r="H140" s="14" t="s">
         <v>343</v>
       </c>
       <c r="I140" s="0" t="s">
@@ -7167,10 +7188,10 @@
       <c r="F141" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="H141" s="12"/>
+      <c r="H141" s="14"/>
       <c r="I141" s="0" t="s">
         <v>344</v>
       </c>
@@ -7200,10 +7221,10 @@
       <c r="F142" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G142" s="6" t="s">
+      <c r="G142" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="H142" s="12"/>
+      <c r="H142" s="14"/>
       <c r="I142" s="0" t="s">
         <v>344</v>
       </c>
@@ -7227,10 +7248,10 @@
       <c r="F143" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G143" s="6" t="s">
+      <c r="G143" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H143" s="12"/>
+      <c r="H143" s="14"/>
       <c r="I143" s="0" t="s">
         <v>344</v>
       </c>
@@ -7260,10 +7281,10 @@
       <c r="F144" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G144" s="6" t="s">
+      <c r="G144" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H144" s="12"/>
+      <c r="H144" s="14"/>
       <c r="I144" s="0" t="s">
         <v>344</v>
       </c>
@@ -7293,10 +7314,10 @@
       <c r="F145" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G145" s="6" t="s">
+      <c r="G145" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="H145" s="12"/>
+      <c r="H145" s="14"/>
       <c r="I145" s="0" t="s">
         <v>344</v>
       </c>
@@ -7346,10 +7367,10 @@
       <c r="E147" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="13" t="s">
+      <c r="F147" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G147" s="6" t="s">
+      <c r="G147" s="8" t="s">
         <v>362</v>
       </c>
       <c r="I147" s="0" t="s">
@@ -7372,7 +7393,7 @@
       <c r="F148" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" s="11" t="s">
         <v>363</v>
       </c>
       <c r="I148" s="0" t="s">
@@ -7389,7 +7410,7 @@
       <c r="A149" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -7398,7 +7419,7 @@
       <c r="F149" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="G149" s="8" t="s">
         <v>366</v>
       </c>
       <c r="I149" s="0" t="s">
@@ -7418,10 +7439,10 @@
       <c r="D150" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="14" t="n">
+      <c r="F150" s="16" t="n">
         <v>214</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G150" s="11" t="s">
         <v>369</v>
       </c>
       <c r="I150" s="0" t="s">
@@ -7438,10 +7459,10 @@
       <c r="A151" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="F151" s="14" t="n">
+      <c r="F151" s="16" t="n">
         <v>214</v>
       </c>
-      <c r="G151" s="6" t="s">
+      <c r="G151" s="8" t="s">
         <v>371</v>
       </c>
       <c r="I151" s="0" t="s">
@@ -7467,10 +7488,10 @@
       <c r="D152" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="14" t="n">
+      <c r="F152" s="16" t="n">
         <v>304</v>
       </c>
-      <c r="G152" s="6" t="s">
+      <c r="G152" s="8" t="s">
         <v>373</v>
       </c>
       <c r="I152" s="0" t="s">
@@ -7496,10 +7517,10 @@
       <c r="D153" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F153" s="14" t="n">
+      <c r="F153" s="16" t="n">
         <v>307</v>
       </c>
-      <c r="G153" s="6" t="s">
+      <c r="G153" s="8" t="s">
         <v>375</v>
       </c>
       <c r="I153" s="0" t="s">
@@ -7528,7 +7549,7 @@
       <c r="F154" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G154" s="6" t="s">
+      <c r="G154" s="8" t="s">
         <v>378</v>
       </c>
       <c r="I154" s="0" t="s">
@@ -7603,7 +7624,7 @@
       <c r="F157" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G157" s="6" t="s">
+      <c r="G157" s="8" t="s">
         <v>386</v>
       </c>
       <c r="I157" s="0" t="s">
@@ -7649,7 +7670,7 @@
       <c r="F159" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G159" s="6" t="s">
+      <c r="G159" s="8" t="s">
         <v>392</v>
       </c>
       <c r="I159" s="0" t="s">
@@ -7672,7 +7693,7 @@
       <c r="F160" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G160" s="6" t="s">
+      <c r="G160" s="8" t="s">
         <v>393</v>
       </c>
       <c r="I160" s="0" t="s">
@@ -7689,7 +7710,7 @@
       <c r="A161" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E161" s="0" t="s">
@@ -7698,7 +7719,7 @@
       <c r="F161" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G161" s="6" t="s">
+      <c r="G161" s="8" t="s">
         <v>394</v>
       </c>
       <c r="I161" s="0" t="s">
@@ -7711,54 +7732,54 @@
         <v>396</v>
       </c>
     </row>
-    <row r="162" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="n">
+    <row r="162" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="8" t="s">
+      <c r="E162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G162" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="I162" s="7" t="s">
+      <c r="I162" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="n">
+      <c r="A163" s="9" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="8" t="s">
+      <c r="B163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="G163" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="I163" s="7" t="s">
+      <c r="I163" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="n">
+      <c r="A164" s="9" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="8" t="s">
+      <c r="B164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="G164" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I164" s="7" t="s">
+      <c r="I164" s="9" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7778,7 +7799,7 @@
       <c r="F165" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="G165" s="8" t="s">
         <v>399</v>
       </c>
       <c r="I165" s="0" t="s">
@@ -8438,50 +8459,50 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7" t="n">
+      <c r="A192" s="9" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="8" t="s">
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="G192" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H192" s="7"/>
-      <c r="I192" s="7" t="s">
+      <c r="H192" s="9"/>
+      <c r="I192" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
-    </row>
-    <row r="193" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7" t="n">
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+    </row>
+    <row r="193" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="n">
         <v>192</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="8" t="s">
+      <c r="C193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="G193" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="I193" s="7" t="s">
+      <c r="I193" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J193" s="7" t="s">
+      <c r="J193" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="K193" s="7" t="s">
+      <c r="K193" s="9" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8495,7 +8516,7 @@
       <c r="F194" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G194" s="6" t="s">
+      <c r="G194" s="8" t="s">
         <v>464</v>
       </c>
       <c r="I194" s="0" t="s">
@@ -8518,7 +8539,7 @@
       <c r="F195" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G195" s="6" t="s">
+      <c r="G195" s="8" t="s">
         <v>465</v>
       </c>
       <c r="I195" s="0" t="s">
@@ -8531,335 +8552,335 @@
         <v>396</v>
       </c>
     </row>
-    <row r="196" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
+    <row r="196" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="11" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="15" t="s">
+      <c r="B196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G196" s="4" t="s">
+      <c r="G196" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="H196" s="4" t="s">
+      <c r="H196" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I196" s="4" t="s">
+      <c r="I196" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J196" s="4" t="s">
+      <c r="J196" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="K196" s="4" t="s">
+      <c r="K196" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="197" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
+    <row r="197" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="15" t="s">
+      <c r="B197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="G197" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="H197" s="4" t="s">
+      <c r="H197" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I197" s="4" t="s">
+      <c r="I197" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J197" s="4" t="s">
+      <c r="J197" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K197" s="4" t="s">
+      <c r="K197" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="198" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="n">
+    <row r="198" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="15" t="s">
+      <c r="B198" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G198" s="4" t="s">
+      <c r="G198" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="H198" s="4" t="s">
+      <c r="H198" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I198" s="4" t="s">
+      <c r="I198" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J198" s="4" t="s">
+      <c r="J198" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K198" s="4" t="s">
+      <c r="K198" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="199" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
+    <row r="199" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="15" t="s">
+      <c r="B199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="H199" s="4" t="s">
+      <c r="H199" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I199" s="4" t="s">
+      <c r="I199" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J199" s="4" t="s">
+      <c r="J199" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K199" s="4" t="s">
+      <c r="K199" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="200" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
+    <row r="200" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="15" t="s">
+      <c r="B200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G200" s="4" t="s">
+      <c r="G200" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="H200" s="4" t="s">
+      <c r="H200" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I200" s="4" t="s">
+      <c r="I200" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J200" s="4" t="s">
+      <c r="J200" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="K200" s="4" t="s">
+      <c r="K200" s="11" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="201" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
+    <row r="201" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="15" t="s">
+      <c r="B201" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G201" s="4" t="s">
+      <c r="G201" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="H201" s="4" t="s">
+      <c r="H201" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I201" s="4" t="s">
+      <c r="I201" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J201" s="4" t="s">
+      <c r="J201" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="K201" s="4" t="s">
+      <c r="K201" s="11" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="202" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
+    <row r="202" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="11" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="15" t="s">
+      <c r="B202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G202" s="4" t="s">
+      <c r="G202" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="H202" s="4" t="s">
+      <c r="H202" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I202" s="4" t="s">
+      <c r="I202" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J202" s="4" t="s">
+      <c r="J202" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="K202" s="4" t="s">
+      <c r="K202" s="11" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="203" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="n">
+    <row r="203" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="11" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="15" t="s">
+      <c r="B203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G203" s="4" t="s">
+      <c r="G203" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="H203" s="4" t="s">
+      <c r="H203" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I203" s="4" t="s">
+      <c r="I203" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J203" s="4" t="s">
+      <c r="J203" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="K203" s="4" t="s">
+      <c r="K203" s="11" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="n">
+      <c r="A204" s="11" t="n">
         <v>203</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="15" t="s">
+      <c r="C204" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="G204" s="4" t="s">
+      <c r="G204" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="H204" s="16" t="s">
+      <c r="H204" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="I204" s="4" t="s">
+      <c r="I204" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="J204" s="4" t="s">
+      <c r="J204" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="K204" s="4" t="s">
+      <c r="K204" s="11" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="n">
+      <c r="A205" s="11" t="n">
         <v>204</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="15" t="s">
+      <c r="C205" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="G205" s="4" t="s">
+      <c r="G205" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="J205" s="4" t="s">
+      <c r="J205" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="K205" s="4" t="s">
+      <c r="K205" s="11" t="s">
         <v>483</v>
       </c>
     </row>
